--- a/DTree_Molecular_Descriptor.xlsx
+++ b/DTree_Molecular_Descriptor.xlsx
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1044,13 +1044,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1314,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1336,13 +1336,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1358,13 +1358,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1380,13 +1380,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1402,13 +1402,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1424,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1446,13 +1446,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
